--- a/output/fit_clients/fit_round_459.xlsx
+++ b/output/fit_clients/fit_round_459.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2168436764.437315</v>
+        <v>2154497931.097624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1030670774737077</v>
+        <v>0.09778386917224287</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03759952166981859</v>
+        <v>0.04321275463908594</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1084218400.511788</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2310085374.732653</v>
+        <v>2428248836.430247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1634637677693986</v>
+        <v>0.1254795100794987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03822177526358119</v>
+        <v>0.03776304704972164</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1155042775.464022</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4845041279.270526</v>
+        <v>4080267307.482849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1273608355339636</v>
+        <v>0.1309961236143317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03500290523505153</v>
+        <v>0.03501380364494021</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>166</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2422520713.691414</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4076588730.429312</v>
+        <v>3226211991.009178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08016715584101552</v>
+        <v>0.08142097557322921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04800206985287721</v>
+        <v>0.03169650813515608</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>170</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2038294363.833588</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2130190529.751745</v>
+        <v>1962488756.519978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1154327386766568</v>
+        <v>0.1252109669875554</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04797552260356207</v>
+        <v>0.03719097394500002</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>86</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1065095280.4003</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2534002754.092342</v>
+        <v>2651748090.254755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07070365771598457</v>
+        <v>0.08293215660884366</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04261938237345145</v>
+        <v>0.03033312733714863</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1267001386.825783</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3762510135.18976</v>
+        <v>3696987682.500188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2051259674582448</v>
+        <v>0.1488026817702053</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02928393721718893</v>
+        <v>0.02272845868313792</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>146</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1881255203.081316</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1657401185.165606</v>
+        <v>1949955301.705752</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1476581595770791</v>
+        <v>0.1489360104008964</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03087800010452069</v>
+        <v>0.03410463435221905</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>828700666.7386448</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5337964423.077276</v>
+        <v>5518280317.132364</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2156090382492825</v>
+        <v>0.1376277225070207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03911423094312715</v>
+        <v>0.05142323562653851</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>193</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2668982337.037964</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3155054547.984736</v>
+        <v>3599608875.21725</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1307710065866224</v>
+        <v>0.1501132067265369</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03413923522546524</v>
+        <v>0.03738895634853315</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>190</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1577527227.740135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2454609836.681076</v>
+        <v>2466539254.809165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869798811088922</v>
+        <v>0.1219762131514775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03985500997474234</v>
+        <v>0.04330779710866229</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>156</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1227304886.438172</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3697690482.21881</v>
+        <v>5139668659.27329</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07614442652379255</v>
+        <v>0.063544809846677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02015438868494876</v>
+        <v>0.02422025638411596</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>154</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1848845311.410824</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3029409020.359891</v>
+        <v>3431505079.102488</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1550630295831636</v>
+        <v>0.1555856900666291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04000681261194085</v>
+        <v>0.03500862198941369</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>148</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1514704542.5106</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1491801059.775499</v>
+        <v>1333358572.717849</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07350936023422674</v>
+        <v>0.06904334029090278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03182612468901598</v>
+        <v>0.03272999536416673</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>745900613.5510722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1938192478.847993</v>
+        <v>2784929450.758879</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1127366319139304</v>
+        <v>0.1146309520186884</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04563505875269201</v>
+        <v>0.04047734028702778</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>94</v>
-      </c>
-      <c r="J16" t="n">
-        <v>969096320.464077</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3327699165.957436</v>
+        <v>3309545165.711185</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1080822537873562</v>
+        <v>0.1407631063686204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04862056271318094</v>
+        <v>0.04592547168467762</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1663849650.835472</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2711850970.145031</v>
+        <v>2621645363.299615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1581311901772867</v>
+        <v>0.1131137717591489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03451703187261556</v>
+        <v>0.02150347127331704</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>150</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1355925536.1916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1081186169.076503</v>
+        <v>1202349208.642947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1485018208088645</v>
+        <v>0.1597205038178522</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02146292583146498</v>
+        <v>0.01969452642458932</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>540593133.5941625</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2675987578.53375</v>
+        <v>2271677191.229369</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1009746429301175</v>
+        <v>0.1466474851646957</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02950811641785878</v>
+        <v>0.02303837708959282</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>63</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1337993743.629488</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2372551120.277393</v>
+        <v>2290458605.331704</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07855700437007773</v>
+        <v>0.0959438163574651</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03390102365336138</v>
+        <v>0.04111797654933739</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1186275560.491943</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3740084931.617021</v>
+        <v>3595207382.543053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1028601014696633</v>
+        <v>0.09537580711347435</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04875555429630959</v>
+        <v>0.05595560252134073</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1870042483.043841</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1097245948.725874</v>
+        <v>1056325710.744336</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1713714972574398</v>
+        <v>0.1395026429182077</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0379535679048732</v>
+        <v>0.04478337685192291</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>548623028.1991394</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2898839220.445133</v>
+        <v>3175143064.294988</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1392024940213611</v>
+        <v>0.1273964199187694</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02392676545872811</v>
+        <v>0.02972440014038388</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>134</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1449419652.289926</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1426812226.169025</v>
+        <v>938408979.5401695</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07410352463600028</v>
+        <v>0.102550224974325</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02403315698863261</v>
+        <v>0.02647240066135261</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>713406078.8870111</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1158219296.603961</v>
+        <v>1375381269.103542</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07928872913173238</v>
+        <v>0.0897110212823229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03736067916260272</v>
+        <v>0.02999831103811756</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>579109659.1015716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3625102253.150418</v>
+        <v>3328766520.908582</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1066738729611308</v>
+        <v>0.1102620764876013</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168654951531053</v>
+        <v>0.02635377014703981</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>104</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1812551155.349278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3092306847.68378</v>
+        <v>2583413945.956862</v>
       </c>
       <c r="F28" t="n">
-        <v>0.138064993284729</v>
+        <v>0.1118492163778886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04408626825715067</v>
+        <v>0.04594380712545602</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>148</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1546153443.102031</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5809245860.269708</v>
+        <v>5760939375.080666</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09780055750558531</v>
+        <v>0.09155300932759607</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02993046983055339</v>
+        <v>0.02817566791851935</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>203</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2904622821.699465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2364600497.502467</v>
+        <v>2054340464.25738</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08909761338000532</v>
+        <v>0.1282395547095455</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03404894414850247</v>
+        <v>0.03695040316848701</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1182300327.756078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1402803370.879409</v>
+        <v>1442879304.369886</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08096422347464592</v>
+        <v>0.07297321046504437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04022417376420691</v>
+        <v>0.04291187878653077</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>701401589.1923345</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1815383543.264896</v>
+        <v>1584257983.550871</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08639474393522337</v>
+        <v>0.1012842300571434</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02589455704378806</v>
+        <v>0.0361414018996578</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>907691905.3216491</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2434150235.381324</v>
+        <v>2714820267.686135</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1850013803713499</v>
+        <v>0.1755555598894039</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05475840044023286</v>
+        <v>0.05845724084305147</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>141</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1217075161.511889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1314675377.41227</v>
+        <v>1500178356.899781</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1101945126294089</v>
+        <v>0.09677587006153165</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02642914883654541</v>
+        <v>0.02730670301983219</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>657337674.9572265</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064684720.771089</v>
+        <v>835994740.0888023</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1122252740838605</v>
+        <v>0.103020846964368</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03821241452140225</v>
+        <v>0.02811971953059283</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>532342364.7940869</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3129599093.130751</v>
+        <v>2381372279.274236</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1133894710617564</v>
+        <v>0.1694959862496214</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01955354775070254</v>
+        <v>0.01966094748949665</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1564799518.118897</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2796192730.067106</v>
+        <v>2252253332.265385</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0914445654554675</v>
+        <v>0.072862579493836</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03155162022994263</v>
+        <v>0.03961936331860495</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>123</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1398096501.86082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2054652587.872671</v>
+        <v>1595668558.078946</v>
       </c>
       <c r="F38" t="n">
-        <v>0.119578712461586</v>
+        <v>0.119697613310682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02975962614103451</v>
+        <v>0.03121992990966414</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1027326264.868657</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1909014502.015492</v>
+        <v>2224449194.762044</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1903428787604659</v>
+        <v>0.1704734607376169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02686818384777869</v>
+        <v>0.02419679238359329</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>954507259.3617494</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1143613078.550548</v>
+        <v>1791939682.679381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1540001845851723</v>
+        <v>0.138357588244312</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04576818168976122</v>
+        <v>0.05343175843597649</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>571806594.7096555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2601292923.076909</v>
+        <v>2210834279.826599</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1096295639033798</v>
+        <v>0.1224712185857878</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03145350127450845</v>
+        <v>0.03074654783155598</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1300646476.900713</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3311630876.372412</v>
+        <v>3226080660.28517</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09182993070317169</v>
+        <v>0.1095915967735764</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03410142820621634</v>
+        <v>0.03381313590729888</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1655815420.084778</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2682688332.782499</v>
+        <v>3025195081.313829</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1488068442367053</v>
+        <v>0.1238919256485436</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02349449640382638</v>
+        <v>0.01581505896899964</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>160</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1341344196.708115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2182402293.018187</v>
+        <v>2369503970.651925</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09580353040585712</v>
+        <v>0.0712203101015819</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03329088443070584</v>
+        <v>0.02467477191055734</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1091201289.255715</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1847677537.163536</v>
+        <v>2153334813.870055</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1401486235723597</v>
+        <v>0.1540065071034731</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04662778933963831</v>
+        <v>0.04863819029212912</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>923838744.1212316</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4286933425.022168</v>
+        <v>4708823417.702749</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1568882197821537</v>
+        <v>0.136391151446675</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03833440609261542</v>
+        <v>0.03892724513909818</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>163</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2143466698.488085</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4674741026.883894</v>
+        <v>4863109760.157503</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1793945323047265</v>
+        <v>0.1926802049598476</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04772871427835897</v>
+        <v>0.05162077555320307</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2337370550.822149</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4722906831.295499</v>
+        <v>3782238395.371194</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09819082117845462</v>
+        <v>0.09265433822994902</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02968020084794726</v>
+        <v>0.03060603116922968</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>150</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2361453408.007448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1804345628.599834</v>
+        <v>1313792203.411559</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1944960818443941</v>
+        <v>0.1966082924154179</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02746491453237957</v>
+        <v>0.04387117755643432</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>902172799.0413181</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3100079735.472765</v>
+        <v>4101278380.097757</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1301000563605344</v>
+        <v>0.1499495523079447</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04878555817500172</v>
+        <v>0.03814506448702327</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>156</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1550039920.468073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>988082420.8951563</v>
+        <v>1052751121.083599</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1949824567074548</v>
+        <v>0.1858561445617501</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0459142582010517</v>
+        <v>0.03334762362362702</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>494041296.3678632</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4714644730.806747</v>
+        <v>4526260538.867808</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08544938774681478</v>
+        <v>0.1308700656102922</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05696944911913895</v>
+        <v>0.0543514669305579</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>189</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2357322379.844866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2656893753.436352</v>
+        <v>3748989648.524178</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1705032108498418</v>
+        <v>0.1736997477304376</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02576300863452631</v>
+        <v>0.02704296645602225</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>132</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1328446932.865679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4459971613.685208</v>
+        <v>3994791982.302914</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1079202625019834</v>
+        <v>0.1311477193285969</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05168537813983111</v>
+        <v>0.03854995058068338</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>149</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2229985907.057261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3961830798.802215</v>
+        <v>4877801108.693072</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1565598461017912</v>
+        <v>0.1457394638548941</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02806388070277795</v>
+        <v>0.02326766428944826</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>127</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1980915372.633399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1160908847.92303</v>
+        <v>1421069297.98324</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1194595014640913</v>
+        <v>0.1469331289353971</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04928126952084765</v>
+        <v>0.04732966138509351</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>580454516.4990729</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3539426402.041875</v>
+        <v>3924534763.796504</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1114827562089467</v>
+        <v>0.1570238139337212</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02759810587456764</v>
+        <v>0.02373766635893496</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>146</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1769713250.738069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1545714459.66681</v>
+        <v>1387002264.16574</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1791593735651382</v>
+        <v>0.1471408961381978</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0332941495124053</v>
+        <v>0.03010484668832248</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>772857256.8288352</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3331476299.032104</v>
+        <v>4443606495.820276</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09839645815486642</v>
+        <v>0.1187300297071701</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03675542774549795</v>
+        <v>0.04412116733051559</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1665738157.714626</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3336165063.431598</v>
+        <v>3072759885.054549</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1540039761833089</v>
+        <v>0.1597611440515247</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02969838769120163</v>
+        <v>0.0320090190622309</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1668082637.347605</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2270221491.8874</v>
+        <v>3031794772.555366</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1090805717877485</v>
+        <v>0.1624776730730813</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03002922157303206</v>
+        <v>0.02342729618978984</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>158</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1135110795.252275</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1901356009.601909</v>
+        <v>2095414700.036997</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1313919773983414</v>
+        <v>0.1944837074995038</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03756872029168668</v>
+        <v>0.03260849715782017</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>950678048.0611628</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3541986953.902503</v>
+        <v>4472580848.300614</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07378663959128011</v>
+        <v>0.07626821799450188</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03060662682162338</v>
+        <v>0.03144821065534291</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1770993559.771667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3629411667.075851</v>
+        <v>3602888028.386919</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1323399732088799</v>
+        <v>0.1327924739150868</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02562927895766709</v>
+        <v>0.03445420513977955</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>143</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1814705843.353326</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4454937892.869491</v>
+        <v>5983980053.03534</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130904545293209</v>
+        <v>0.1642666418890163</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02642350534394347</v>
+        <v>0.02586976175542495</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>165</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2227468937.879968</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3931362202.148106</v>
+        <v>4066457690.648531</v>
       </c>
       <c r="F66" t="n">
-        <v>0.141540636972368</v>
+        <v>0.1595388200292002</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04645669668114199</v>
+        <v>0.04452997386656781</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>134</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1965681071.00224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3510222920.716126</v>
+        <v>2538356658.194637</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07989133624343631</v>
+        <v>0.07814806930237941</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03587755426273077</v>
+        <v>0.04099465793929339</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>147</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1755111435.46052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5788805110.92466</v>
+        <v>4837302286.29092</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1023413611907164</v>
+        <v>0.1452283190166908</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03228393603468254</v>
+        <v>0.04191809059655808</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2894402659.687662</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2489910312.287982</v>
+        <v>2345212117.74111</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1203371097329598</v>
+        <v>0.1454272234518444</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0471963224251522</v>
+        <v>0.04183269802606551</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1244955224.464117</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3565794903.097896</v>
+        <v>3289051454.914794</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08760824238287053</v>
+        <v>0.08660192599550616</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03432909530836276</v>
+        <v>0.03088270321569817</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>131</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1782897465.389578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4626249619.682381</v>
+        <v>3660084599.63368</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1778908414773893</v>
+        <v>0.1545900175329374</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02887637933571705</v>
+        <v>0.02335119852220835</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>167</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2313124887.700247</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1591203814.440085</v>
+        <v>1613521495.223478</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1076200192815478</v>
+        <v>0.09416088026288193</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03661422689862088</v>
+        <v>0.0435278514734531</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>795601919.5316328</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2374106088.359249</v>
+        <v>2659820066.758881</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07001164871669349</v>
+        <v>0.08498605471552474</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04648615977836688</v>
+        <v>0.04139625252558448</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>174</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1187053097.511297</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3036730506.204883</v>
+        <v>2875537523.027336</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1313825792990667</v>
+        <v>0.1258089270045603</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02591913408696162</v>
+        <v>0.03261758196910255</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>157</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1518365315.367154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1924156967.226257</v>
+        <v>2126386107.95103</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1471596856733579</v>
+        <v>0.1489573122753755</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03792668019550718</v>
+        <v>0.03518882143739065</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>962078454.9913807</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4736077505.674915</v>
+        <v>3334543809.07934</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09411828558224072</v>
+        <v>0.110143531877894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02626988475263219</v>
+        <v>0.03262566706974881</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2368038768.461072</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1913819991.832594</v>
+        <v>2103928504.16692</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1391934452368581</v>
+        <v>0.1411462016296366</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0273883586430131</v>
+        <v>0.02664798595162384</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>956910044.6993524</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3173723666.240718</v>
+        <v>4686542640.06261</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09327809549258347</v>
+        <v>0.1144427771702755</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04731578114795344</v>
+        <v>0.05728523730357054</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>160</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1586861857.987463</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1597300097.327963</v>
+        <v>1467984214.451835</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1541553625080091</v>
+        <v>0.1196932297699428</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02903774820682763</v>
+        <v>0.03445978355282322</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>798650099.9224454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4423042837.793529</v>
+        <v>5582195532.113176</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07497559551005993</v>
+        <v>0.08929497124893064</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03216205972344549</v>
+        <v>0.03257775052083964</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>103</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2211521439.411826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3658207116.908053</v>
+        <v>3755742493.483858</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1078329927934288</v>
+        <v>0.1033487939242368</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02036734230451976</v>
+        <v>0.02097831617986037</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>109</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1829103508.994051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5008796181.451097</v>
+        <v>3811373942.738057</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2119600557508833</v>
+        <v>0.2037956619291937</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02118708702512752</v>
+        <v>0.02032316129128782</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>161</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2504398074.205949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1964980899.456755</v>
+        <v>1647499232.519208</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09923150449882667</v>
+        <v>0.1295191247088764</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02844400516416717</v>
+        <v>0.03341048065920774</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>982490430.7286068</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2267436806.327514</v>
+        <v>2366927207.396085</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09576599090029318</v>
+        <v>0.1023769732041797</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03260144808620358</v>
+        <v>0.03609728968561387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1133718369.073311</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3194553680.603587</v>
+        <v>2455525091.130175</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1654054846336643</v>
+        <v>0.1707434134139229</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05077499031078603</v>
+        <v>0.03957293694881601</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>172</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1597276921.939756</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1995969704.853143</v>
+        <v>2421208123.529107</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1591459364252614</v>
+        <v>0.1291684745871729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02558037978958441</v>
+        <v>0.02489955563070383</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>997984879.5153205</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1431363377.765878</v>
+        <v>1313050213.665614</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1284971184190563</v>
+        <v>0.1367607494305315</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02857340071918404</v>
+        <v>0.04112782307533935</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>715681803.7759395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2294543794.927839</v>
+        <v>3425213292.086896</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1095997672598717</v>
+        <v>0.108143617773581</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03421524402529414</v>
+        <v>0.02419542184682395</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>183</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1147271858.220615</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3454898667.288056</v>
+        <v>2938616350.154607</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1101199415308233</v>
+        <v>0.115640877432241</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02564415285624865</v>
+        <v>0.0353569296164848</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>155</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1727449338.441665</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1877066710.142</v>
+        <v>1451657454.995147</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293566816205818</v>
+        <v>0.09506200799402593</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0433069434755597</v>
+        <v>0.04107172549410766</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>938533402.8185813</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1614821161.181515</v>
+        <v>1507831457.832024</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1959127806224673</v>
+        <v>0.1233745964298812</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05864404962904708</v>
+        <v>0.04375487458040443</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>807410604.2465036</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2334759359.52038</v>
+        <v>1945839884.403985</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09469517702779072</v>
+        <v>0.09192984977740472</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03367139050853652</v>
+        <v>0.04131272562971377</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>126</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1167379651.224931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4530241107.383768</v>
+        <v>3153186703.965908</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1092241444695257</v>
+        <v>0.1037729247234412</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03362129318893588</v>
+        <v>0.04150634446216778</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2265120520.023143</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1747790737.655045</v>
+        <v>2273279699.805172</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1570577439210602</v>
+        <v>0.1266630128596944</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04241276537132618</v>
+        <v>0.03586584082146183</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>873895334.4314684</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2043823315.157018</v>
+        <v>3165951151.431439</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1201729586443433</v>
+        <v>0.09628332065178556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04370300428947086</v>
+        <v>0.03404468068444714</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>110</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1021911726.856414</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2185724256.458307</v>
+        <v>1877434327.835671</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1352344809346458</v>
+        <v>0.08903959515605347</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0350237056469149</v>
+        <v>0.03940091157999066</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1092862095.403924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4826318452.098108</v>
+        <v>4579948507.289462</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1260333603045934</v>
+        <v>0.1279262866918031</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02710471573952781</v>
+        <v>0.02379900683522186</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>147</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2413159348.895751</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3463631310.943716</v>
+        <v>2712785765.407126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1131976611644269</v>
+        <v>0.09672437303530909</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03070260276600355</v>
+        <v>0.02229216331522875</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1731815671.617996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3263028465.913925</v>
+        <v>2740785983.164025</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1173612634518036</v>
+        <v>0.1401970645293838</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02987076378961083</v>
+        <v>0.02194986497944659</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1631514237.954082</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3598688001.124828</v>
+        <v>4690196848.991704</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1401688599854</v>
+        <v>0.1690008051424783</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02123695069538887</v>
+        <v>0.02681032586513382</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>141</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1799344039.226732</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3171428658.450087</v>
+        <v>2453581164.158131</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1893830564934361</v>
+        <v>0.1565257546157096</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04522696598431119</v>
+        <v>0.05848830907506741</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>189</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1585714440.931284</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_459.xlsx
+++ b/output/fit_clients/fit_round_459.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2154497931.097624</v>
+        <v>2297058512.521171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09778386917224287</v>
+        <v>0.07614060673191282</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04321275463908594</v>
+        <v>0.028063960532739</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2428248836.430247</v>
+        <v>2354491449.109559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1254795100794987</v>
+        <v>0.1338503550078066</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03776304704972164</v>
+        <v>0.04087837285899971</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4080267307.482849</v>
+        <v>4915485541.033712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1309961236143317</v>
+        <v>0.1539113979297266</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03501380364494021</v>
+        <v>0.02422056721709196</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3226211991.009178</v>
+        <v>3640779024.556193</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08142097557322921</v>
+        <v>0.06840299623677065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03169650813515608</v>
+        <v>0.03955003747506398</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1962488756.519978</v>
+        <v>2635559169.231938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1252109669875554</v>
+        <v>0.1010789576267118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03719097394500002</v>
+        <v>0.0346707170642412</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2651748090.254755</v>
+        <v>1926634665.912574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08293215660884366</v>
+        <v>0.07374635409900976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03033312733714863</v>
+        <v>0.03439322105819654</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3696987682.500188</v>
+        <v>2732580645.05477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1488026817702053</v>
+        <v>0.2033955415469084</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02272845868313792</v>
+        <v>0.02690679279878655</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1949955301.705752</v>
+        <v>1773084200.246449</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1489360104008964</v>
+        <v>0.1482657806814717</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03410463435221905</v>
+        <v>0.03386130851679735</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5518280317.132364</v>
+        <v>4914611092.112828</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1376277225070207</v>
+        <v>0.1310636594641766</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05142323562653851</v>
+        <v>0.0523633687674892</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3599608875.21725</v>
+        <v>4134536421.672085</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1501132067265369</v>
+        <v>0.1665480617890117</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03738895634853315</v>
+        <v>0.03583836890880886</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2466539254.809165</v>
+        <v>2865793300.186998</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1219762131514775</v>
+        <v>0.186193750874654</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04330779710866229</v>
+        <v>0.03564679033086738</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5139668659.27329</v>
+        <v>4443504006.6261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.063544809846677</v>
+        <v>0.07384743722402271</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02422025638411596</v>
+        <v>0.02651260833831721</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3431505079.102488</v>
+        <v>3179987136.888334</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555856900666291</v>
+        <v>0.1390805074965273</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03500862198941369</v>
+        <v>0.03305075491508399</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1333358572.717849</v>
+        <v>1554908915.5955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06904334029090278</v>
+        <v>0.1008749347544102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03272999536416673</v>
+        <v>0.04864340470301034</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2784929450.758879</v>
+        <v>2307448789.546626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1146309520186884</v>
+        <v>0.09158570467001159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04047734028702778</v>
+        <v>0.04472836660853317</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3309545165.711185</v>
+        <v>4163008863.410598</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1407631063686204</v>
+        <v>0.1582587867408182</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04592547168467762</v>
+        <v>0.04926766127398671</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2621645363.299615</v>
+        <v>2920063069.565322</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1131137717591489</v>
+        <v>0.1491609183729456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02150347127331704</v>
+        <v>0.0228038481298826</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1202349208.642947</v>
+        <v>1264020678.949885</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1597205038178522</v>
+        <v>0.1311203259684438</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01969452642458932</v>
+        <v>0.02658645144796576</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2271677191.229369</v>
+        <v>2461643736.601668</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1466474851646957</v>
+        <v>0.1543684915436242</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02303837708959282</v>
+        <v>0.02471165592196046</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2290458605.331704</v>
+        <v>1761858561.690264</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0959438163574651</v>
+        <v>0.09922935229061894</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04111797654933739</v>
+        <v>0.03395628886566254</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3595207382.543053</v>
+        <v>3785638055.573076</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09537580711347435</v>
+        <v>0.1289097639432673</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05595560252134073</v>
+        <v>0.04525302562475728</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1056325710.744336</v>
+        <v>1045194657.354781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1395026429182077</v>
+        <v>0.1173550007380568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04478337685192291</v>
+        <v>0.04286910333518398</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3175143064.294988</v>
+        <v>3716097889.956338</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1273964199187694</v>
+        <v>0.1325495550819361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02972440014038388</v>
+        <v>0.03175230683553772</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>938408979.5401695</v>
+        <v>1273549113.812809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.102550224974325</v>
+        <v>0.1210820709301338</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02647240066135261</v>
+        <v>0.02039005080696373</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1375381269.103542</v>
+        <v>1086175893.384516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0897110212823229</v>
+        <v>0.1240676624629961</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02999831103811756</v>
+        <v>0.03410936025386344</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3328766520.908582</v>
+        <v>4156020188.399324</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1102620764876013</v>
+        <v>0.1318382701620715</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02635377014703981</v>
+        <v>0.01865233163275656</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2583413945.956862</v>
+        <v>2813320488.888916</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1118492163778886</v>
+        <v>0.1147503061115584</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04594380712545602</v>
+        <v>0.04903647152806616</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5760939375.080666</v>
+        <v>3864343572.769144</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09155300932759607</v>
+        <v>0.1077376571921116</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02817566791851935</v>
+        <v>0.03865786268454265</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2054340464.25738</v>
+        <v>2193936339.691421</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1282395547095455</v>
+        <v>0.1060075356778909</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03695040316848701</v>
+        <v>0.03675308627547259</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1442879304.369886</v>
+        <v>1157793920.60982</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07297321046504437</v>
+        <v>0.1054174914489446</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04291187878653077</v>
+        <v>0.04681454564694627</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1584257983.550871</v>
+        <v>1303886090.833866</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1012842300571434</v>
+        <v>0.09886500952193471</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0361414018996578</v>
+        <v>0.03587060163203021</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2714820267.686135</v>
+        <v>2476994116.522493</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755555598894039</v>
+        <v>0.1311282767377435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05845724084305147</v>
+        <v>0.05877285845098458</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1500178356.899781</v>
+        <v>1516232088.524714</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09677587006153165</v>
+        <v>0.0844980480107082</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02730670301983219</v>
+        <v>0.01926829257591878</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835994740.0888023</v>
+        <v>1279021756.973467</v>
       </c>
       <c r="F35" t="n">
-        <v>0.103020846964368</v>
+        <v>0.09733161337774011</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02811971953059283</v>
+        <v>0.03140545874980884</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2381372279.274236</v>
+        <v>2877312594.376251</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1694959862496214</v>
+        <v>0.1180710586533115</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01966094748949665</v>
+        <v>0.02773151400154469</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2252253332.265385</v>
+        <v>1833728027.847238</v>
       </c>
       <c r="F37" t="n">
-        <v>0.072862579493836</v>
+        <v>0.09254853836878185</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03961936331860495</v>
+        <v>0.02960294752687728</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1595668558.078946</v>
+        <v>1530380460.727378</v>
       </c>
       <c r="F38" t="n">
-        <v>0.119697613310682</v>
+        <v>0.1155547665700692</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03121992990966414</v>
+        <v>0.02608214760381279</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2224449194.762044</v>
+        <v>2129695172.847741</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1704734607376169</v>
+        <v>0.1697289279852283</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02419679238359329</v>
+        <v>0.02309469650492441</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1791939682.679381</v>
+        <v>1479284840.656983</v>
       </c>
       <c r="F40" t="n">
-        <v>0.138357588244312</v>
+        <v>0.1029365466595628</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05343175843597649</v>
+        <v>0.04254004450340668</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2210834279.826599</v>
+        <v>2364159637.384286</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224712185857878</v>
+        <v>0.1158450199390073</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03074654783155598</v>
+        <v>0.02885033464352121</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3226080660.28517</v>
+        <v>3756095521.880251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1095915967735764</v>
+        <v>0.1022354103386361</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03381313590729888</v>
+        <v>0.03081601571238782</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3025195081.313829</v>
+        <v>1879893104.336771</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1238919256485436</v>
+        <v>0.2009903605861224</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01581505896899964</v>
+        <v>0.02067810441452995</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2369503970.651925</v>
+        <v>2205070520.204152</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0712203101015819</v>
+        <v>0.07933248884333491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02467477191055734</v>
+        <v>0.02583826837948164</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2153334813.870055</v>
+        <v>1778513706.434268</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1540065071034731</v>
+        <v>0.1809581115181478</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04863819029212912</v>
+        <v>0.04240471845152091</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4708823417.702749</v>
+        <v>5243687143.372809</v>
       </c>
       <c r="F46" t="n">
-        <v>0.136391151446675</v>
+        <v>0.1454712693518045</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03892724513909818</v>
+        <v>0.04241080976674107</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4863109760.157503</v>
+        <v>3292884938.169588</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1926802049598476</v>
+        <v>0.2000121728745277</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05162077555320307</v>
+        <v>0.05001184729186283</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3782238395.371194</v>
+        <v>3641891882.149311</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09265433822994902</v>
+        <v>0.09734503584376535</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03060603116922968</v>
+        <v>0.03860559156644826</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1313792203.411559</v>
+        <v>1709364501.542072</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1966082924154179</v>
+        <v>0.16030208832525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04387117755643432</v>
+        <v>0.04444069267262235</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4101278380.097757</v>
+        <v>3838571577.339499</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1499495523079447</v>
+        <v>0.1411813043999804</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03814506448702327</v>
+        <v>0.04928558764454589</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1052751121.083599</v>
+        <v>1160250418.147503</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1858561445617501</v>
+        <v>0.1336533188942642</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03334762362362702</v>
+        <v>0.03760216444537247</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4526260538.867808</v>
+        <v>5118467858.143069</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1308700656102922</v>
+        <v>0.1138803780628562</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0543514669305579</v>
+        <v>0.04644821239601801</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3748989648.524178</v>
+        <v>3700816383.359166</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1736997477304376</v>
+        <v>0.1513013441587422</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02704296645602225</v>
+        <v>0.03406722404441942</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3994791982.302914</v>
+        <v>3357047935.370803</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1311477193285969</v>
+        <v>0.1162848305930221</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03854995058068338</v>
+        <v>0.03240900247075695</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4877801108.693072</v>
+        <v>3241740512.037355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1457394638548941</v>
+        <v>0.194733356869701</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02326766428944826</v>
+        <v>0.03098830259202072</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421069297.98324</v>
+        <v>1233226637.166826</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1469331289353971</v>
+        <v>0.1087881384844554</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04732966138509351</v>
+        <v>0.03898060644379463</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3924534763.796504</v>
+        <v>2887383827.294885</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570238139337212</v>
+        <v>0.1744579662644843</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02373766635893496</v>
+        <v>0.01701997219278882</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1387002264.16574</v>
+        <v>1870859619.167888</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1471408961381978</v>
+        <v>0.1602603311492967</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03010484668832248</v>
+        <v>0.03176545724498236</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4443606495.820276</v>
+        <v>3661200907.399745</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1187300297071701</v>
+        <v>0.08159161083527242</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04412116733051559</v>
+        <v>0.04076947746626038</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3072759885.054549</v>
+        <v>2482706182.500794</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1597611440515247</v>
+        <v>0.1856969899099527</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0320090190622309</v>
+        <v>0.02256649250821485</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3031794772.555366</v>
+        <v>2347736600.74023</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1624776730730813</v>
+        <v>0.1334533318411044</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02342729618978984</v>
+        <v>0.03281543837102788</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2095414700.036997</v>
+        <v>1591072120.184767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1944837074995038</v>
+        <v>0.1826372642554771</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03260849715782017</v>
+        <v>0.03075764072448361</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4472580848.300614</v>
+        <v>4993289747.893606</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07626821799450188</v>
+        <v>0.07775460964875594</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03144821065534291</v>
+        <v>0.04100406195558724</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3602888028.386919</v>
+        <v>4943269231.009298</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1327924739150868</v>
+        <v>0.1224483706593066</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03445420513977955</v>
+        <v>0.02890952248216868</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5983980053.03534</v>
+        <v>4818833116.850348</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1642666418890163</v>
+        <v>0.1069190631546283</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02586976175542495</v>
+        <v>0.03150148475200709</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4066457690.648531</v>
+        <v>3750398318.186461</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1595388200292002</v>
+        <v>0.1537980407715795</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04452997386656781</v>
+        <v>0.03440344267891816</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2538356658.194637</v>
+        <v>2631304112.116528</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07814806930237941</v>
+        <v>0.07714981665283635</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04099465793929339</v>
+        <v>0.04406253224450268</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4837302286.29092</v>
+        <v>4862844516.081467</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452283190166908</v>
+        <v>0.122810544982937</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04191809059655808</v>
+        <v>0.03291624861606549</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2345212117.74111</v>
+        <v>1966030960.809745</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1454272234518444</v>
+        <v>0.1806468979787976</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04183269802606551</v>
+        <v>0.04360993200048963</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3289051454.914794</v>
+        <v>2383814598.515196</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08660192599550616</v>
+        <v>0.09389682943297992</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03088270321569817</v>
+        <v>0.0370405246520952</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3660084599.63368</v>
+        <v>4034572102.16334</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1545900175329374</v>
+        <v>0.168109288155958</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02335119852220835</v>
+        <v>0.02541725920682828</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1613521495.223478</v>
+        <v>1737370831.66838</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09416088026288193</v>
+        <v>0.09373057992417758</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0435278514734531</v>
+        <v>0.05265973067817895</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2659820066.758881</v>
+        <v>3569330124.007215</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08498605471552474</v>
+        <v>0.06797583454704938</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04139625252558448</v>
+        <v>0.04042217457374336</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2875537523.027336</v>
+        <v>2860613692.778906</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1258089270045603</v>
+        <v>0.1360068613912102</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03261758196910255</v>
+        <v>0.03347247746270395</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2126386107.95103</v>
+        <v>2240588470.687583</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1489573122753755</v>
+        <v>0.1521772232389643</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03518882143739065</v>
+        <v>0.03745055066160104</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3334543809.07934</v>
+        <v>4121367280.315969</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110143531877894</v>
+        <v>0.07700204615942013</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03262566706974881</v>
+        <v>0.0215739894851978</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2103928504.16692</v>
+        <v>1617584638.293989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1411462016296366</v>
+        <v>0.178229829981714</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02664798595162384</v>
+        <v>0.02066347526181439</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4686542640.06261</v>
+        <v>3033589454.977274</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144427771702755</v>
+        <v>0.1144034146109371</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05728523730357054</v>
+        <v>0.05538090024202474</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1467984214.451835</v>
+        <v>1892476714.602058</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1196932297699428</v>
+        <v>0.1231897142211791</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03445978355282322</v>
+        <v>0.03869758013009165</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5582195532.113176</v>
+        <v>3653945008.644478</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08929497124893064</v>
+        <v>0.1051981538010452</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03257775052083964</v>
+        <v>0.0271910320534581</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3755742493.483858</v>
+        <v>3780068255.625388</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1033487939242368</v>
+        <v>0.1050390378400917</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02097831617986037</v>
+        <v>0.03139465615723211</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3811373942.738057</v>
+        <v>5422737390.436083</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2037956619291937</v>
+        <v>0.1998971835069615</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02032316129128782</v>
+        <v>0.01968064724925295</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1647499232.519208</v>
+        <v>2338959351.357658</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1295191247088764</v>
+        <v>0.1575037847628667</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03341048065920774</v>
+        <v>0.03371895702353778</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2366927207.396085</v>
+        <v>2279429126.664951</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1023769732041797</v>
+        <v>0.1165112637341325</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03609728968561387</v>
+        <v>0.04293651483880877</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2455525091.130175</v>
+        <v>3690077523.091045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1707434134139229</v>
+        <v>0.1809830569370474</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03957293694881601</v>
+        <v>0.03456417060459146</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2421208123.529107</v>
+        <v>2593811284.201424</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1291684745871729</v>
+        <v>0.137360897852842</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02489955563070383</v>
+        <v>0.01713703270285541</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1313050213.665614</v>
+        <v>1326227020.410067</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1367607494305315</v>
+        <v>0.1806209317455982</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04112782307533935</v>
+        <v>0.04160985981839168</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3425213292.086896</v>
+        <v>3451250488.768178</v>
       </c>
       <c r="F88" t="n">
-        <v>0.108143617773581</v>
+        <v>0.1745785243382381</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02419542184682395</v>
+        <v>0.03929959806933288</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2938616350.154607</v>
+        <v>2223099359.152583</v>
       </c>
       <c r="F89" t="n">
-        <v>0.115640877432241</v>
+        <v>0.10154408746025</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0353569296164848</v>
+        <v>0.03259532548565248</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1451657454.995147</v>
+        <v>1951356831.718926</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09506200799402593</v>
+        <v>0.1064667569657905</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04107172549410766</v>
+        <v>0.04126450133981302</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1507831457.832024</v>
+        <v>2058374892.134613</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1233745964298812</v>
+        <v>0.1828310352883531</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04375487458040443</v>
+        <v>0.05374749918217112</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1945839884.403985</v>
+        <v>2236111397.776867</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09192984977740472</v>
+        <v>0.06879590675206188</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04131272562971377</v>
+        <v>0.03534372356141229</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3153186703.965908</v>
+        <v>4012781107.918781</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1037729247234412</v>
+        <v>0.1178295590275172</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04150634446216778</v>
+        <v>0.04702014797332858</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2273279699.805172</v>
+        <v>1978159636.984843</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1266630128596944</v>
+        <v>0.1441098949387404</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03586584082146183</v>
+        <v>0.03599075539533427</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3165951151.431439</v>
+        <v>2518641224.035865</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09628332065178556</v>
+        <v>0.1196617470813195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03404468068444714</v>
+        <v>0.03497992304081535</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1877434327.835671</v>
+        <v>2223151905.483358</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08903959515605347</v>
+        <v>0.1242219971057981</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03940091157999066</v>
+        <v>0.03951142445984337</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4579948507.289462</v>
+        <v>4843062005.183862</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279262866918031</v>
+        <v>0.161856158019648</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02379900683522186</v>
+        <v>0.02500205879229703</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2712785765.407126</v>
+        <v>3286763772.838033</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09672437303530909</v>
+        <v>0.1292527630720452</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02229216331522875</v>
+        <v>0.02983264651458569</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2740785983.164025</v>
+        <v>3313522124.459976</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401970645293838</v>
+        <v>0.1231108603702358</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02194986497944659</v>
+        <v>0.03086791276875438</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4690196848.991704</v>
+        <v>4512299381.38358</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1690008051424783</v>
+        <v>0.1397586981592592</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02681032586513382</v>
+        <v>0.01911008621181145</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2453581164.158131</v>
+        <v>2948907636.060886</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1565257546157096</v>
+        <v>0.2167578327873973</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05848830907506741</v>
+        <v>0.05404421185034315</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_459.xlsx
+++ b/output/fit_clients/fit_round_459.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2297058512.521171</v>
+        <v>2285549218.060377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07614060673191282</v>
+        <v>0.08254053125199907</v>
       </c>
       <c r="G2" t="n">
-        <v>0.028063960532739</v>
+        <v>0.04380853818533934</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2354491449.109559</v>
+        <v>2502215611.75212</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1338503550078066</v>
+        <v>0.1667291224668714</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04087837285899971</v>
+        <v>0.04649785793447155</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4915485541.033712</v>
+        <v>4975372330.72406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1539113979297266</v>
+        <v>0.1213982375581303</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02422056721709196</v>
+        <v>0.0351290225227851</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>233</v>
+      </c>
+      <c r="J4" t="n">
+        <v>458</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.17381358235404</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3640779024.556193</v>
+        <v>3222996292.801545</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06840299623677065</v>
+        <v>0.07310045555824092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03955003747506398</v>
+        <v>0.04834698011310254</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>458</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.02174145026133</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2635559169.231938</v>
+        <v>1895218489.117795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1010789576267118</v>
+        <v>0.1356126466719465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0346707170642412</v>
+        <v>0.04558374189836791</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1926634665.912574</v>
+        <v>2274689141.080779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07374635409900976</v>
+        <v>0.07116460072367603</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03439322105819654</v>
+        <v>0.04275944048539009</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2732580645.05477</v>
+        <v>3133948976.872791</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2033955415469084</v>
+        <v>0.1613850265122974</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02690679279878655</v>
+        <v>0.02283547479028482</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>130</v>
+      </c>
+      <c r="J8" t="n">
+        <v>458</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.7902413799354</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1773084200.246449</v>
+        <v>2255503958.274096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482657806814717</v>
+        <v>0.1335684653746256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03386130851679735</v>
+        <v>0.02548486036202957</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4914611092.112828</v>
+        <v>3882614751.995091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310636594641766</v>
+        <v>0.1824538328700464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0523633687674892</v>
+        <v>0.04614249137113682</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>355</v>
+      </c>
+      <c r="J10" t="n">
+        <v>458</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.40421215521366</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4134536421.672085</v>
+        <v>4127567101.320784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1665480617890117</v>
+        <v>0.1656115602118052</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03583836890880886</v>
+        <v>0.04915672704390252</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>190</v>
+      </c>
+      <c r="J11" t="n">
+        <v>459</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2865793300.186998</v>
+        <v>3237007151.068058</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186193750874654</v>
+        <v>0.1215777519526731</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03564679033086738</v>
+        <v>0.03395527329932643</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4443504006.6261</v>
+        <v>3519604813.349437</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07384743722402271</v>
+        <v>0.06472281171259975</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02651260833831721</v>
+        <v>0.02660670130930054</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>239</v>
+      </c>
+      <c r="J13" t="n">
+        <v>458</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23.77861924367063</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3179987136.888334</v>
+        <v>3844365118.418165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1390805074965273</v>
+        <v>0.1821297655368898</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03305075491508399</v>
+        <v>0.04303147775399872</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>459</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1554908915.5955</v>
+        <v>1443273690.555928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1008749347544102</v>
+        <v>0.109436692734779</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04864340470301034</v>
+        <v>0.04123948567520723</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2307448789.546626</v>
+        <v>2100687658.614566</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09158570467001159</v>
+        <v>0.0962676128948351</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04472836660853317</v>
+        <v>0.03166889216570463</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4163008863.410598</v>
+        <v>4061766009.959482</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1582587867408182</v>
+        <v>0.1707718284928947</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04926766127398671</v>
+        <v>0.04886344646727892</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>224</v>
+      </c>
+      <c r="J17" t="n">
+        <v>459</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34.47320376073988</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1067,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2920063069.565322</v>
+        <v>3193877482.570394</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1491609183729456</v>
+        <v>0.1581902950966378</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0228038481298826</v>
+        <v>0.02158217372445153</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>122</v>
+      </c>
+      <c r="J18" t="n">
+        <v>452</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1264020678.949885</v>
+        <v>900255060.9197819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1311203259684438</v>
+        <v>0.161797340725388</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02658645144796576</v>
+        <v>0.01899760091042818</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2461643736.601668</v>
+        <v>2389019702.493612</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1543684915436242</v>
+        <v>0.1069071233286136</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02471165592196046</v>
+        <v>0.02866853162647272</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1761858561.690264</v>
+        <v>2501890394.985886</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09922935229061894</v>
+        <v>0.07648121343513267</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03395628886566254</v>
+        <v>0.04477870854662696</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3785638055.573076</v>
+        <v>2463751883.618129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1289097639432673</v>
+        <v>0.1091356798521196</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04525302562475728</v>
+        <v>0.05480722269381726</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>132</v>
+      </c>
+      <c r="J22" t="n">
+        <v>458</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17.6153807638378</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1250,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1045194657.354781</v>
+        <v>1103910522.431554</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1173550007380568</v>
+        <v>0.142887728362806</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04286910333518398</v>
+        <v>0.03602534301007184</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3716097889.956338</v>
+        <v>3432903804.373123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1325495550819361</v>
+        <v>0.0918075412468375</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03175230683553772</v>
+        <v>0.03402476829431657</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>145</v>
+      </c>
+      <c r="J24" t="n">
+        <v>459</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1273549113.812809</v>
+        <v>1044834385.306576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210820709301338</v>
+        <v>0.1119939047069689</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02039005080696373</v>
+        <v>0.02213911452863462</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1086175893.384516</v>
+        <v>894468327.9345099</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1240676624629961</v>
+        <v>0.07928471056501654</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03410936025386344</v>
+        <v>0.0298536699330532</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4156020188.399324</v>
+        <v>4268597084.318675</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1318382701620715</v>
+        <v>0.1535623656105146</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01865233163275656</v>
+        <v>0.0185042141682095</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>459</v>
+      </c>
+      <c r="K27" t="n">
+        <v>37.0978650071776</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1421,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2813320488.888916</v>
+        <v>3434151608.226483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1147503061115584</v>
+        <v>0.1400176003099524</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04903647152806616</v>
+        <v>0.04573422850019356</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>112</v>
+      </c>
+      <c r="J28" t="n">
+        <v>459</v>
+      </c>
+      <c r="K28" t="n">
+        <v>38.71565191493957</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1458,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3864343572.769144</v>
+        <v>5078917173.630296</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1077376571921116</v>
+        <v>0.1475615961345063</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03865786268454265</v>
+        <v>0.02946234872145523</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>370</v>
+      </c>
+      <c r="J29" t="n">
+        <v>459</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2193936339.691421</v>
+        <v>1869689666.356363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1060075356778909</v>
+        <v>0.1030105238876129</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03675308627547259</v>
+        <v>0.02733369758277877</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1157793920.60982</v>
+        <v>973539841.7820191</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1054174914489446</v>
+        <v>0.1065899315879546</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04681454564694627</v>
+        <v>0.03642998916925509</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1303886090.833866</v>
+        <v>1812670452.132399</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09886500952193471</v>
+        <v>0.07322414129107525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03587060163203021</v>
+        <v>0.03301073447572548</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2476994116.522493</v>
+        <v>2778479865.856015</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1311282767377435</v>
+        <v>0.1432258393712428</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05877285845098458</v>
+        <v>0.05282176501191019</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1639,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1516232088.524714</v>
+        <v>1527625885.125952</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0844980480107082</v>
+        <v>0.09905524199489446</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01926829257591878</v>
+        <v>0.02290930115105888</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1279021756.973467</v>
+        <v>1243631658.381171</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09733161337774011</v>
+        <v>0.09205263738884607</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03140545874980884</v>
+        <v>0.02971962426406781</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2877312594.376251</v>
+        <v>2930806425.261896</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1180710586533115</v>
+        <v>0.167657668031372</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02773151400154469</v>
+        <v>0.0203253416865004</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1833728027.847238</v>
+        <v>2423048382.722715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09254853836878185</v>
+        <v>0.06984710302405212</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02960294752687728</v>
+        <v>0.03959668237335839</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1530380460.727378</v>
+        <v>1397919902.986243</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1155547665700692</v>
+        <v>0.1122343502433267</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02608214760381279</v>
+        <v>0.02958576598307879</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2129695172.847741</v>
+        <v>1922365852.971695</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1697289279852283</v>
+        <v>0.1835985902833241</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02309469650492441</v>
+        <v>0.03267680159197052</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1479284840.656983</v>
+        <v>1774673340.816142</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1029365466595628</v>
+        <v>0.1410977890628299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04254004450340668</v>
+        <v>0.04661778980047883</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2364159637.384286</v>
+        <v>1926684059.972515</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1158450199390073</v>
+        <v>0.1573526920726536</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02885033464352121</v>
+        <v>0.02898660868648409</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1913,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3756095521.880251</v>
+        <v>3546965463.685393</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1022354103386361</v>
+        <v>0.07953344524704806</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03081601571238782</v>
+        <v>0.03254828345707352</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>201</v>
+      </c>
+      <c r="J42" t="n">
+        <v>459</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1879893104.336771</v>
+        <v>2158216639.675182</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2009903605861224</v>
+        <v>0.194197039623889</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02067810441452995</v>
+        <v>0.01654822861370607</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1989,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2205070520.204152</v>
+        <v>1945534465.355517</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07933248884333491</v>
+        <v>0.0769518360135405</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583826837948164</v>
+        <v>0.03140973883514869</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1778513706.434268</v>
+        <v>2417496339.005054</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1809581115181478</v>
+        <v>0.1884337554230079</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04240471845152091</v>
+        <v>0.03825731408968897</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5243687143.372809</v>
+        <v>5432748207.467801</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1454712693518045</v>
+        <v>0.1097175908749792</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04241080976674107</v>
+        <v>0.05564838634279533</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>272</v>
+      </c>
+      <c r="J46" t="n">
+        <v>459</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3292884938.169588</v>
+        <v>4926175516.710788</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2000121728745277</v>
+        <v>0.1251747647952584</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05001184729186283</v>
+        <v>0.05325538667581312</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>207</v>
+      </c>
+      <c r="J47" t="n">
+        <v>458</v>
+      </c>
+      <c r="K47" t="n">
+        <v>34.11627455184235</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3641891882.149311</v>
+        <v>4664880689.901772</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09734503584376535</v>
+        <v>0.07454366686896396</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03860559156644826</v>
+        <v>0.03580138262865289</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>228</v>
+      </c>
+      <c r="J48" t="n">
+        <v>459</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1709364501.542072</v>
+        <v>1375275227.44624</v>
       </c>
       <c r="F49" t="n">
-        <v>0.16030208832525</v>
+        <v>0.1753550910879865</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04444069267262235</v>
+        <v>0.04285704127344685</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3838571577.339499</v>
+        <v>3430891557.547472</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1411813043999804</v>
+        <v>0.1285451412798408</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04928558764454589</v>
+        <v>0.04228824040899019</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>163</v>
+      </c>
+      <c r="J50" t="n">
+        <v>459</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1160250418.147503</v>
+        <v>972292454.9556284</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1336533188942642</v>
+        <v>0.127451356392249</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03760216444537247</v>
+        <v>0.04844214014549837</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5118467858.143069</v>
+        <v>3550466008.808238</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1138803780628562</v>
+        <v>0.116831306537192</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04644821239601801</v>
+        <v>0.03869115629159106</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>260</v>
+      </c>
+      <c r="J52" t="n">
+        <v>459</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3700816383.359166</v>
+        <v>2751220810.702121</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1513013441587422</v>
+        <v>0.1612594323957583</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03406722404441942</v>
+        <v>0.0215960479914014</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3357047935.370803</v>
+        <v>3723832515.792227</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1162848305930221</v>
+        <v>0.1410119616935493</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03240900247075695</v>
+        <v>0.03321900394816503</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>243</v>
+      </c>
+      <c r="J54" t="n">
+        <v>459</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3241740512.037355</v>
+        <v>3246830170.734124</v>
       </c>
       <c r="F55" t="n">
-        <v>0.194733356869701</v>
+        <v>0.16023852850018</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03098830259202072</v>
+        <v>0.02869698430793318</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>457</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1233226637.166826</v>
+        <v>1759419317.98686</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1087881384844554</v>
+        <v>0.1152953151624596</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03898060644379463</v>
+        <v>0.05244028344116266</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2887383827.294885</v>
+        <v>3299758627.366173</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1744579662644843</v>
+        <v>0.1489757380765854</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01701997219278882</v>
+        <v>0.02478995727924685</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>196</v>
+      </c>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1870859619.167888</v>
+        <v>1227192006.938376</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1602603311492967</v>
+        <v>0.1895285665569128</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03176545724498236</v>
+        <v>0.02492873232221817</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3661200907.399745</v>
+        <v>4027446023.929644</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08159161083527242</v>
+        <v>0.1031468783410931</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04076947746626038</v>
+        <v>0.03158972094094731</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>225</v>
+      </c>
+      <c r="J59" t="n">
+        <v>458</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34.19685052871518</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2482706182.500794</v>
+        <v>3418180009.90731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1856969899099527</v>
+        <v>0.1976562565704465</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02256649250821485</v>
+        <v>0.02258534863402643</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>88</v>
+      </c>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2347736600.74023</v>
+        <v>3061821643.583844</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1334533318411044</v>
+        <v>0.1782147487797058</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03281543837102788</v>
+        <v>0.0266289110196695</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1591072120.184767</v>
+        <v>1997475046.18175</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1826372642554771</v>
+        <v>0.135127966858693</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03075764072448361</v>
+        <v>0.04454279139015121</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4993289747.893606</v>
+        <v>4083054373.399779</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07775460964875594</v>
+        <v>0.09245959544233283</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04100406195558724</v>
+        <v>0.0332453910477987</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>230</v>
+      </c>
+      <c r="J63" t="n">
+        <v>458</v>
+      </c>
+      <c r="K63" t="n">
+        <v>32.49652130635228</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4943269231.009298</v>
+        <v>5495953339.953013</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1224483706593066</v>
+        <v>0.1611106618335013</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02890952248216868</v>
+        <v>0.02612330660303315</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>230</v>
+      </c>
+      <c r="J64" t="n">
+        <v>458</v>
+      </c>
+      <c r="K64" t="n">
+        <v>33.55940061783269</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4818833116.850348</v>
+        <v>3636837546.216794</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1069190631546283</v>
+        <v>0.1335201804127892</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03150148475200709</v>
+        <v>0.02014613052734278</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>327</v>
+      </c>
+      <c r="J65" t="n">
+        <v>458</v>
+      </c>
+      <c r="K65" t="n">
+        <v>26.34181485528023</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3750398318.186461</v>
+        <v>4172559764.238395</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1537980407715795</v>
+        <v>0.1397301284314677</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03440344267891816</v>
+        <v>0.04331609496931906</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>226</v>
+      </c>
+      <c r="J66" t="n">
+        <v>459</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2631304112.116528</v>
+        <v>3301742794.620333</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07714981665283635</v>
+        <v>0.07388119018254304</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04406253224450268</v>
+        <v>0.03124608646914381</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4862844516.081467</v>
+        <v>3871019266.906531</v>
       </c>
       <c r="F68" t="n">
-        <v>0.122810544982937</v>
+        <v>0.1247817097400161</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03291624861606549</v>
+        <v>0.04343234386104239</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>249</v>
+      </c>
+      <c r="J68" t="n">
+        <v>459</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1966030960.809745</v>
+        <v>2067506534.523246</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1806468979787976</v>
+        <v>0.1702042689805597</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04360993200048963</v>
+        <v>0.06018072553622141</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2383814598.515196</v>
+        <v>3652175738.788275</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09389682943297992</v>
+        <v>0.07679736315300652</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0370405246520952</v>
+        <v>0.04538871562588415</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4034572102.16334</v>
+        <v>4582155634.044753</v>
       </c>
       <c r="F71" t="n">
-        <v>0.168109288155958</v>
+        <v>0.1709389548209822</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02541725920682828</v>
+        <v>0.02685250709655448</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>313</v>
+      </c>
+      <c r="J71" t="n">
+        <v>458</v>
+      </c>
+      <c r="K71" t="n">
+        <v>32.36679374166216</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1737370831.66838</v>
+        <v>1522801145.348109</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09373057992417758</v>
+        <v>0.06723811566959632</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05265973067817895</v>
+        <v>0.05062298758513926</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3569330124.007215</v>
+        <v>2183411789.229469</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06797583454704938</v>
+        <v>0.07768050355614012</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04042217457374336</v>
+        <v>0.05044262530611774</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2860613692.778906</v>
+        <v>2859978652.111573</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1360068613912102</v>
+        <v>0.1274199566605429</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03347247746270395</v>
+        <v>0.02183858537815729</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>134</v>
+      </c>
+      <c r="J74" t="n">
+        <v>457</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2240588470.687583</v>
+        <v>1759011569.220317</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1521772232389643</v>
+        <v>0.103575596108044</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03745055066160104</v>
+        <v>0.02799568640058852</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4121367280.315969</v>
+        <v>4727187103.449914</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07700204615942013</v>
+        <v>0.07906584330345753</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0215739894851978</v>
+        <v>0.03090442627960757</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>219</v>
+      </c>
+      <c r="J76" t="n">
+        <v>459</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1617584638.293989</v>
+        <v>2312566539.336537</v>
       </c>
       <c r="F77" t="n">
-        <v>0.178229829981714</v>
+        <v>0.1530629681603418</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02066347526181439</v>
+        <v>0.03005056182821732</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3033589454.977274</v>
+        <v>4362712859.154989</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144034146109371</v>
+        <v>0.1306260805924776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05538090024202474</v>
+        <v>0.04173411844174817</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>229</v>
+      </c>
+      <c r="J78" t="n">
+        <v>458</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.97624324437977</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1892476714.602058</v>
+        <v>1911941272.895539</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1231897142211791</v>
+        <v>0.1694391051937469</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03869758013009165</v>
+        <v>0.03099259852966506</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3653945008.644478</v>
+        <v>4289514516.176796</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051981538010452</v>
+        <v>0.1116177069052963</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0271910320534581</v>
+        <v>0.03866996647813748</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>224</v>
+      </c>
+      <c r="J80" t="n">
+        <v>458</v>
+      </c>
+      <c r="K80" t="n">
+        <v>29.34893629357754</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3780068255.625388</v>
+        <v>4054123959.026237</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1050390378400917</v>
+        <v>0.08327080769288783</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03139465615723211</v>
+        <v>0.03020806867697793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>214</v>
+      </c>
+      <c r="J81" t="n">
+        <v>458</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.57188844204445</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5422737390.436083</v>
+        <v>4636048336.211476</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1998971835069615</v>
+        <v>0.1414606015263382</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01968064724925295</v>
+        <v>0.02587026112032036</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>305</v>
+      </c>
+      <c r="J82" t="n">
+        <v>459</v>
+      </c>
+      <c r="K82" t="n">
+        <v>34.97722318104821</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2338959351.357658</v>
+        <v>1910364331.673502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575037847628667</v>
+        <v>0.1108589131645088</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03371895702353778</v>
+        <v>0.03269610622376482</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2279429126.664951</v>
+        <v>1587649973.110946</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1165112637341325</v>
+        <v>0.08166775097946422</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04293651483880877</v>
+        <v>0.04739531538409205</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3690077523.091045</v>
+        <v>2486836887.454709</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1809830569370474</v>
+        <v>0.1735589692526295</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03456417060459146</v>
+        <v>0.03923696789865688</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2593811284.201424</v>
+        <v>2179956898.948799</v>
       </c>
       <c r="F86" t="n">
-        <v>0.137360897852842</v>
+        <v>0.1716083418084133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01713703270285541</v>
+        <v>0.0250985810324915</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1326227020.410067</v>
+        <v>1325793683.646762</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1806209317455982</v>
+        <v>0.1456728988710875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04160985981839168</v>
+        <v>0.03763643285735385</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3451250488.768178</v>
+        <v>2864543629.810588</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1745785243382381</v>
+        <v>0.1343185793914945</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03929959806933288</v>
+        <v>0.02722549764623121</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2223099359.152583</v>
+        <v>2130167382.266846</v>
       </c>
       <c r="F89" t="n">
-        <v>0.10154408746025</v>
+        <v>0.1040850149999525</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03259532548565248</v>
+        <v>0.03520461376946853</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1951356831.718926</v>
+        <v>1736359694.680402</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1064667569657905</v>
+        <v>0.08441758979459839</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04126450133981302</v>
+        <v>0.03401095811734385</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058374892.134613</v>
+        <v>2073624614.749019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1828310352883531</v>
+        <v>0.149083454805354</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05374749918217112</v>
+        <v>0.0425869368938578</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2236111397.776867</v>
+        <v>2624397096.100074</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06879590675206188</v>
+        <v>0.07860643537608973</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03534372356141229</v>
+        <v>0.04439566419543582</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4012781107.918781</v>
+        <v>4372915562.373847</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1178295590275172</v>
+        <v>0.101993276191978</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04702014797332858</v>
+        <v>0.05465842229985761</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>220</v>
+      </c>
+      <c r="J93" t="n">
+        <v>459</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1978159636.984843</v>
+        <v>1575120970.815158</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1441098949387404</v>
+        <v>0.1607259413311188</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03599075539533427</v>
+        <v>0.02827687757387028</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2518641224.035865</v>
+        <v>2981706611.419111</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1196617470813195</v>
+        <v>0.1327119958094253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03497992304081535</v>
+        <v>0.04903560032584426</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2223151905.483358</v>
+        <v>2246034080.094426</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242219971057981</v>
+        <v>0.09057391290881187</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03951142445984337</v>
+        <v>0.0392347428826676</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4843062005.183862</v>
+        <v>3251709634.458438</v>
       </c>
       <c r="F97" t="n">
-        <v>0.161856158019648</v>
+        <v>0.144526898785711</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02500205879229703</v>
+        <v>0.02587587332482328</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>239</v>
+      </c>
+      <c r="J97" t="n">
+        <v>457</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3286763772.838033</v>
+        <v>3187597699.779931</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1292527630720452</v>
+        <v>0.1033639353294173</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02983264651458569</v>
+        <v>0.03249006939385529</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>115</v>
+      </c>
+      <c r="J98" t="n">
+        <v>456</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3313522124.459976</v>
+        <v>3307157189.645222</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1231108603702358</v>
+        <v>0.1404721008123593</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03086791276875438</v>
+        <v>0.0259173866144901</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4512299381.38358</v>
+        <v>4538277146.185423</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1397586981592592</v>
+        <v>0.1643523657139788</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01911008621181145</v>
+        <v>0.01901514325846674</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>213</v>
+      </c>
+      <c r="J100" t="n">
+        <v>459</v>
+      </c>
+      <c r="K100" t="n">
+        <v>35.72201034358101</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2948907636.060886</v>
+        <v>3385299309.183517</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2167578327873973</v>
+        <v>0.1503989435665818</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05404421185034315</v>
+        <v>0.04586217855277674</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
